--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value154.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value154.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.739454315099661</v>
+        <v>3.076720952987671</v>
       </c>
       <c r="B1">
-        <v>2.491898039087386</v>
+        <v>4.632126331329346</v>
       </c>
       <c r="C1">
-        <v>2.504435375747823</v>
+        <v>3.729093313217163</v>
       </c>
       <c r="D1">
-        <v>1.234927536518822</v>
+        <v>3.265719413757324</v>
       </c>
       <c r="E1">
-        <v>0.6290725948139306</v>
+        <v>1.334676504135132</v>
       </c>
     </row>
   </sheetData>
